--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,40 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -97,64 +100,67 @@
     <t>nice</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>energy</t>
   </si>
   <si>
     <t>like</t>
@@ -166,21 +172,18 @@
     <t>care</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
   </si>
   <si>
     <t>supermarket</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +577,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -632,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -682,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -732,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -832,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6952054794520548</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8515625</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5897435897435898</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.851063829787234</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3866666666666667</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,31 +1006,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
+        <v>106</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3691275167785235</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3391472868217054</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8083333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3376623376623377</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3121693121693122</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C14">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1785714285714286</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,115 +1288,139 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1018766756032172</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C16">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>204</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L16">
+        <v>79</v>
+      </c>
+      <c r="M16">
+        <v>79</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.09651474530831099</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>337</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16">
-        <v>38</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>335</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.7547169811320755</v>
-      </c>
-      <c r="L16">
-        <v>80</v>
-      </c>
-      <c r="M16">
-        <v>80</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K17">
+        <v>0.73125</v>
+      </c>
+      <c r="L17">
+        <v>117</v>
+      </c>
+      <c r="M17">
+        <v>117</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L18">
+        <v>46</v>
+      </c>
+      <c r="M18">
+        <v>46</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
         <v>0.7142857142857143</v>
       </c>
-      <c r="L17">
-        <v>45</v>
-      </c>
-      <c r="M17">
-        <v>45</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.7037037037037037</v>
-      </c>
       <c r="L19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,18 +1435,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="10:17">
+    <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.68125</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1428,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.6808510638297872</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1454,74 +1484,74 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L22">
+        <v>61</v>
+      </c>
+      <c r="M22">
+        <v>61</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.625</v>
+      </c>
+      <c r="L23">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.6511627906976745</v>
-      </c>
-      <c r="L22">
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L24">
         <v>28</v>
       </c>
-      <c r="M22">
+      <c r="M24">
         <v>28</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.62</v>
-      </c>
-      <c r="L23">
-        <v>31</v>
-      </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1532,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.6083550913838121</v>
+        <v>0.6031331592689295</v>
       </c>
       <c r="L25">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M25">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1558,15 +1588,15 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
         <v>29</v>
@@ -1584,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5558823529411765</v>
+        <v>0.575</v>
       </c>
       <c r="L27">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1610,21 +1640,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.5084745762711864</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L28">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M28">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1636,73 +1666,73 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29">
+        <v>0.5322033898305085</v>
+      </c>
+      <c r="L29">
+        <v>157</v>
+      </c>
+      <c r="M29">
+        <v>157</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
         <v>0.5056179775280899</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>45</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>45</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.4560669456066946</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L31">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M31">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1714,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.453125</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1740,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1766,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.3835616438356164</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1792,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.3461538461538461</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1818,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.3285714285714286</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1844,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.1004784688995215</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1870,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.07932692307692307</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1896,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.05480984340044743</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1922,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.048834628190899</v>
+        <v>0.04106548279689234</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1948,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.02768166089965398</v>
+        <v>0.04</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1974,59 +2004,85 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>843</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.02523364485981308</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="L42">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2086</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.01482914248871696</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3056</v>
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44">
+        <v>0.01322154143824573</v>
+      </c>
+      <c r="L44">
+        <v>41</v>
+      </c>
+      <c r="M44">
+        <v>47</v>
+      </c>
+      <c r="N44">
+        <v>0.87</v>
+      </c>
+      <c r="O44">
+        <v>0.13</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3060</v>
       </c>
     </row>
   </sheetData>
